--- a/data/pca/factorExposure/factorExposure_2013-04-02.xlsx
+++ b/data/pca/factorExposure/factorExposure_2013-04-02.xlsx
@@ -14,9 +14,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>factor1</t>
+  </si>
+  <si>
+    <t>factor2</t>
+  </si>
+  <si>
+    <t>factor3</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -683,838 +689,1462 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B104"/>
+  <dimension ref="A1:D104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B2">
-        <v>-5.877329018573683e-05</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>-0.001935890697129024</v>
+      </c>
+      <c r="C2">
+        <v>-0.03323394267443328</v>
+      </c>
+      <c r="D2">
+        <v>0.0009874125906206436</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4">
-        <v>0.001912947916826817</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.005887963335006722</v>
+      </c>
+      <c r="C4">
+        <v>-0.08667790091228095</v>
+      </c>
+      <c r="D4">
+        <v>0.07602224436905849</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B6">
-        <v>0.0007027989388528717</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.01332054974890253</v>
+      </c>
+      <c r="C6">
+        <v>-0.113183189733761</v>
+      </c>
+      <c r="D6">
+        <v>0.02880758403045612</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B7">
-        <v>0.002078795562931849</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.004641470469323272</v>
+      </c>
+      <c r="C7">
+        <v>-0.05666214135336071</v>
+      </c>
+      <c r="D7">
+        <v>0.03047016968984732</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B8">
-        <v>0.0001374711724384376</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.005591395896432957</v>
+      </c>
+      <c r="C8">
+        <v>-0.03884094635951709</v>
+      </c>
+      <c r="D8">
+        <v>0.03931861059135811</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9">
-        <v>0.00397632655948217</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.004018821462943663</v>
+      </c>
+      <c r="C9">
+        <v>-0.07248206050390131</v>
+      </c>
+      <c r="D9">
+        <v>0.06975925255298235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B10">
-        <v>-0.004207832164530055</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.005094604103563614</v>
+      </c>
+      <c r="C10">
+        <v>-0.05883854074589884</v>
+      </c>
+      <c r="D10">
+        <v>-0.2035473778849765</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B11">
-        <v>0.003173394890369426</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.005204528594856434</v>
+      </c>
+      <c r="C11">
+        <v>-0.08138850681541988</v>
+      </c>
+      <c r="D11">
+        <v>0.05968917194217235</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B12">
-        <v>-7.227959656936372e-05</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.003831697991213893</v>
+      </c>
+      <c r="C12">
+        <v>-0.06507778632234218</v>
+      </c>
+      <c r="D12">
+        <v>0.0451214211538783</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B13">
-        <v>-0.003497613086641671</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.008416712051050787</v>
+      </c>
+      <c r="C13">
+        <v>-0.06762304385124175</v>
+      </c>
+      <c r="D13">
+        <v>0.06393182921910419</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B14">
-        <v>0.001439938680608628</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.001348163985140401</v>
+      </c>
+      <c r="C14">
+        <v>-0.04625036128749798</v>
+      </c>
+      <c r="D14">
+        <v>0.009051341627114915</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B15">
-        <v>0.001193604646392543</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.005905468128500291</v>
+      </c>
+      <c r="C15">
+        <v>-0.04303641490452247</v>
+      </c>
+      <c r="D15">
+        <v>0.03060071220620946</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B16">
-        <v>0.001388484032934623</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.004815982075840288</v>
+      </c>
+      <c r="C16">
+        <v>-0.06686847366623548</v>
+      </c>
+      <c r="D16">
+        <v>0.04480518078530193</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B20">
-        <v>8.292335677582516e-05</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.008695970120919241</v>
+      </c>
+      <c r="C20">
+        <v>-0.0683195428707567</v>
+      </c>
+      <c r="D20">
+        <v>0.04756135440382244</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B21">
-        <v>-0.005494482363047192</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.009771004192246172</v>
+      </c>
+      <c r="C21">
+        <v>-0.02337584919777553</v>
+      </c>
+      <c r="D21">
+        <v>0.03542986196211763</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B22">
-        <v>0.01693231015572407</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>-0.00713392107484175</v>
+      </c>
+      <c r="C22">
+        <v>-0.09473267603631075</v>
+      </c>
+      <c r="D22">
+        <v>0.102285674358077</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B23">
-        <v>0.01725442115915049</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>-0.006949731175046842</v>
+      </c>
+      <c r="C23">
+        <v>-0.09561467029755767</v>
+      </c>
+      <c r="D23">
+        <v>0.1025850093750458</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B24">
-        <v>0.001992536676492192</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>0.00485575816789732</v>
+      </c>
+      <c r="C24">
+        <v>-0.07574183461728828</v>
+      </c>
+      <c r="D24">
+        <v>0.05786454438672138</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B25">
-        <v>0.003886335673286678</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>0.00260439665460701</v>
+      </c>
+      <c r="C25">
+        <v>-0.07900127026763003</v>
+      </c>
+      <c r="D25">
+        <v>0.06332436924896523</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B26">
-        <v>0.006225995757166233</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>0.003481913410664542</v>
+      </c>
+      <c r="C26">
+        <v>-0.04277913583144871</v>
+      </c>
+      <c r="D26">
+        <v>0.02613682678695607</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B28">
-        <v>0.005206798608114488</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>-0.001264429610013361</v>
+      </c>
+      <c r="C28">
+        <v>-0.1071283479965378</v>
+      </c>
+      <c r="D28">
+        <v>-0.3183863569808071</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B29">
-        <v>0.001132274887406243</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>0.002894955477703281</v>
+      </c>
+      <c r="C29">
+        <v>-0.04879117373878983</v>
+      </c>
+      <c r="D29">
+        <v>0.00473870440818464</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B30">
-        <v>0.003459657697666071</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>0.008620358245890507</v>
+      </c>
+      <c r="C30">
+        <v>-0.1452777581692678</v>
+      </c>
+      <c r="D30">
+        <v>0.09775443373085285</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
       <c r="A31" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B31">
-        <v>-1.244691425776042e-05</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>0.00599726540108328</v>
+      </c>
+      <c r="C31">
+        <v>-0.04540161715777125</v>
+      </c>
+      <c r="D31">
+        <v>0.03223674072551696</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B32">
-        <v>0.0005835400654186589</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>0.003722879059702402</v>
+      </c>
+      <c r="C32">
+        <v>-0.03955493203142343</v>
+      </c>
+      <c r="D32">
+        <v>0.02319615877049967</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B33">
-        <v>0.003116786185943091</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>0.007753782129508238</v>
+      </c>
+      <c r="C33">
+        <v>-0.08695250716414793</v>
+      </c>
+      <c r="D33">
+        <v>0.07131599184592104</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B34">
-        <v>0.004414183681320395</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>0.003639869202427959</v>
+      </c>
+      <c r="C34">
+        <v>-0.05889213970829141</v>
+      </c>
+      <c r="D34">
+        <v>0.04629806366991809</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B35">
-        <v>0.002600125009969306</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>0.00466846736121994</v>
+      </c>
+      <c r="C35">
+        <v>-0.04009470127170139</v>
+      </c>
+      <c r="D35">
+        <v>0.01331448640375345</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
       <c r="A36" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B36">
-        <v>0.004025906384279744</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>-0.001409873951620843</v>
+      </c>
+      <c r="C36">
+        <v>-0.02541086936678581</v>
+      </c>
+      <c r="D36">
+        <v>0.02089480392747058</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
       <c r="A37" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <v>0</v>
+      </c>
+      <c r="D37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
       <c r="A38" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B38">
-        <v>-0.002233682975733029</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>0.009435181081548604</v>
+      </c>
+      <c r="C38">
+        <v>-0.03486035665500537</v>
+      </c>
+      <c r="D38">
+        <v>0.02065413912585376</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
       <c r="A39" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B39">
-        <v>0.01274950187795473</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>-0.001197415457527712</v>
+      </c>
+      <c r="C39">
+        <v>-0.1184821848214179</v>
+      </c>
+      <c r="D39">
+        <v>0.07338594003812923</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
       <c r="A40" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B40">
-        <v>0.009604845820753214</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>0.001924619546488321</v>
+      </c>
+      <c r="C40">
+        <v>-0.08944359570670517</v>
+      </c>
+      <c r="D40">
+        <v>0.009047818470251018</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
       <c r="A41" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B41">
-        <v>0.0004689241581151522</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>0.007097962993268515</v>
+      </c>
+      <c r="C41">
+        <v>-0.0381937463376083</v>
+      </c>
+      <c r="D41">
+        <v>0.03561068163592165</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
       <c r="A42" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
       <c r="A43" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B43">
-        <v>0.003348298952710865</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>0.003389337649315138</v>
+      </c>
+      <c r="C43">
+        <v>-0.05158633966398516</v>
+      </c>
+      <c r="D43">
+        <v>0.02426121765772512</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
       <c r="A44" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B44">
-        <v>0.002654809299540084</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>0.003274784720226252</v>
+      </c>
+      <c r="C44">
+        <v>-0.1156081201547468</v>
+      </c>
+      <c r="D44">
+        <v>0.06963184986208566</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
       <c r="A45" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
       <c r="A46" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B46">
-        <v>0.001673197517289759</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>0.002232767776900546</v>
+      </c>
+      <c r="C46">
+        <v>-0.03603165007084124</v>
+      </c>
+      <c r="D46">
+        <v>0.02718060150394042</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
       <c r="A47" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B47">
-        <v>-0.0007645932301861273</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>0.002631948451338863</v>
+      </c>
+      <c r="C47">
+        <v>-0.03793474009385779</v>
+      </c>
+      <c r="D47">
+        <v>0.02490746092705248</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
       <c r="A48" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B48">
-        <v>-0.003236300299528114</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>0.006290116746378194</v>
+      </c>
+      <c r="C48">
+        <v>-0.02954556198716906</v>
+      </c>
+      <c r="D48">
+        <v>0.03204310276178023</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
       <c r="A49" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B49">
-        <v>0.0139944703938209</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>0.01429548825318773</v>
+      </c>
+      <c r="C49">
+        <v>-0.1833396478295947</v>
+      </c>
+      <c r="D49">
+        <v>0.009888916878762831</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
       <c r="A50" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B50">
-        <v>0.001407143001801844</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>0.003421117255419622</v>
+      </c>
+      <c r="C50">
+        <v>-0.04407174558262789</v>
+      </c>
+      <c r="D50">
+        <v>0.03531589116349705</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
       <c r="A51" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B51">
-        <v>-0.0005624616220820324</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>0.004213524260593954</v>
+      </c>
+      <c r="C51">
+        <v>-0.02500195971812681</v>
+      </c>
+      <c r="D51">
+        <v>0.02220142786459199</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
       <c r="A52" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <v>0</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
       <c r="A53" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B53">
-        <v>-0.0004881078196066283</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>0.01980780871101693</v>
+      </c>
+      <c r="C53">
+        <v>-0.1686838294288316</v>
+      </c>
+      <c r="D53">
+        <v>0.03749599063115924</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
       <c r="A54" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B54">
-        <v>-0.0007394310950332419</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>0.008535422204515516</v>
+      </c>
+      <c r="C54">
+        <v>-0.05658966230215042</v>
+      </c>
+      <c r="D54">
+        <v>0.04167349413845201</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
       <c r="A55" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B55">
-        <v>0.004012205932901283</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>0.009008025507869966</v>
+      </c>
+      <c r="C55">
+        <v>-0.1095876822673204</v>
+      </c>
+      <c r="D55">
+        <v>0.04458605333594748</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
       <c r="A56" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B56">
-        <v>-0.003062200245920646</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>0.0192944530395654</v>
+      </c>
+      <c r="C56">
+        <v>-0.1755630829735579</v>
+      </c>
+      <c r="D56">
+        <v>0.03840193388021768</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
       <c r="A57" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <v>0</v>
+      </c>
+      <c r="D57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
       <c r="A58" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B58">
-        <v>0.00715526746204085</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>0.01905273177937999</v>
+      </c>
+      <c r="C58">
+        <v>-0.1076130119908417</v>
+      </c>
+      <c r="D58">
+        <v>0.05416794840242144</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
       <c r="A59" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B59">
-        <v>0.006823100791479372</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>0.00855517814657415</v>
+      </c>
+      <c r="C59">
+        <v>-0.1565005823787119</v>
+      </c>
+      <c r="D59">
+        <v>-0.3040174960506037</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
       <c r="A60" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B60">
-        <v>0.004325351785566717</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>0.02279401156257921</v>
+      </c>
+      <c r="C60">
+        <v>-0.2235618847814055</v>
+      </c>
+      <c r="D60">
+        <v>0.02067435697797922</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
       <c r="A61" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B61">
-        <v>0.01466399337408898</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>-0.002224985274836608</v>
+      </c>
+      <c r="C61">
+        <v>-0.09650583396356793</v>
+      </c>
+      <c r="D61">
+        <v>0.05658561943807683</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
       <c r="A62" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B62">
-        <v>-0.1698386894127123</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>0.1438202951597078</v>
+      </c>
+      <c r="C62">
+        <v>-0.08844680778110264</v>
+      </c>
+      <c r="D62">
+        <v>0.04488888156342271</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
       <c r="A63" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B63">
-        <v>0.00118231663337654</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>0.00608254134411546</v>
+      </c>
+      <c r="C63">
+        <v>-0.05729504546183114</v>
+      </c>
+      <c r="D63">
+        <v>0.02605736393193129</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
       <c r="A64" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B64">
-        <v>0.005274018659080964</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>0.01467014333397471</v>
+      </c>
+      <c r="C64">
+        <v>-0.1061691725188825</v>
+      </c>
+      <c r="D64">
+        <v>0.05843132829432907</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
       <c r="A65" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B65">
-        <v>-0.002174031598904584</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>0.01697661440390002</v>
+      </c>
+      <c r="C65">
+        <v>-0.1208487451837375</v>
+      </c>
+      <c r="D65">
+        <v>0.01360858386184781</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
       <c r="A66" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B66">
-        <v>0.008051933572880268</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>0.01204032683099929</v>
+      </c>
+      <c r="C66">
+        <v>-0.1607999974406406</v>
+      </c>
+      <c r="D66">
+        <v>0.111699673305971</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
       <c r="A67" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B67">
-        <v>-0.003718462776798218</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>0.01545217519158031</v>
+      </c>
+      <c r="C67">
+        <v>-0.0657111750989559</v>
+      </c>
+      <c r="D67">
+        <v>0.02912953218576229</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
       <c r="A68" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B68">
-        <v>0.006855307266611488</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>0.0003440435153198359</v>
+      </c>
+      <c r="C68">
+        <v>-0.08640162108841935</v>
+      </c>
+      <c r="D68">
+        <v>-0.250373803376524</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
       <c r="A69" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B69">
-        <v>0.002909744140583905</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>0.005732657309832324</v>
+      </c>
+      <c r="C69">
+        <v>-0.05099046408525904</v>
+      </c>
+      <c r="D69">
+        <v>0.03862549211988285</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
       <c r="A70" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B70">
-        <v>-0.0001692564552441913</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>0.001807678522488765</v>
+      </c>
+      <c r="C70">
+        <v>-0.002545086868125077</v>
+      </c>
+      <c r="D70">
+        <v>0.0006259459647617983</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
       <c r="A71" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B71">
-        <v>0.001454784667532402</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>0.005617570282152256</v>
+      </c>
+      <c r="C71">
+        <v>-0.09709067277263679</v>
+      </c>
+      <c r="D71">
+        <v>-0.2970640085190693</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
       <c r="A72" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B72">
-        <v>0.005240693699778231</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>0.01505807720137279</v>
+      </c>
+      <c r="C72">
+        <v>-0.1492855438808585</v>
+      </c>
+      <c r="D72">
+        <v>0.02131238474153253</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
       <c r="A73" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B73">
-        <v>0.01169886121965751</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>0.02857431058171413</v>
+      </c>
+      <c r="C73">
+        <v>-0.2760388109683703</v>
+      </c>
+      <c r="D73">
+        <v>0.0476814073204505</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
       <c r="A74" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B74">
-        <v>0.005068757083724934</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>0.0009985030108892699</v>
+      </c>
+      <c r="C74">
+        <v>-0.1044944591724942</v>
+      </c>
+      <c r="D74">
+        <v>0.03942438126294127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
       <c r="A75" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B75">
-        <v>0.002914954131836923</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>0.01037936549697454</v>
+      </c>
+      <c r="C75">
+        <v>-0.1305796991410432</v>
+      </c>
+      <c r="D75">
+        <v>0.02500866151878278</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
       <c r="A76" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B76">
-        <v>-0.009379809391877761</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>0.02081322180653224</v>
+      </c>
+      <c r="C76">
+        <v>-0.1502337944860604</v>
+      </c>
+      <c r="D76">
+        <v>0.0642711376583346</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
       <c r="A77" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B77">
-        <v>4.423347269528735e-05</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>0.02386966880916888</v>
+      </c>
+      <c r="C77">
+        <v>-0.1351418701367405</v>
+      </c>
+      <c r="D77">
+        <v>0.0558895550460683</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
       <c r="A78" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B78">
-        <v>-0.001630508018135351</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>0.01410551073433832</v>
+      </c>
+      <c r="C78">
+        <v>-0.09631865049812939</v>
+      </c>
+      <c r="D78">
+        <v>0.0663570930468967</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
       <c r="A79" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B79">
-        <v>-0.02457737150852116</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>0.03660287782198066</v>
+      </c>
+      <c r="C79">
+        <v>-0.1567779983466549</v>
+      </c>
+      <c r="D79">
+        <v>0.03205047914327135</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
       <c r="A80" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B80">
-        <v>-0.00479851463427822</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>0.01036866215306768</v>
+      </c>
+      <c r="C80">
+        <v>-0.04287454039708808</v>
+      </c>
+      <c r="D80">
+        <v>0.0299696587720944</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B81">
-        <v>0.0001144442964442385</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>0.01438276009218268</v>
+      </c>
+      <c r="C81">
+        <v>-0.1285367949245743</v>
+      </c>
+      <c r="D81">
+        <v>0.04386733612439211</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
       <c r="A82" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B82">
-        <v>-0.00565776157020169</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>0.01909782200496097</v>
+      </c>
+      <c r="C82">
+        <v>-0.1444042004708639</v>
+      </c>
+      <c r="D82">
+        <v>0.04025270994510427</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
       <c r="A83" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B83">
-        <v>0.008537526243878229</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>0.009884219103894589</v>
+      </c>
+      <c r="C83">
+        <v>-0.05752436436165327</v>
+      </c>
+      <c r="D83">
+        <v>0.05372171230161752</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
       <c r="A84" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B84">
-        <v>-0.01269162039296855</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>0.01151140841234376</v>
+      </c>
+      <c r="C84">
+        <v>-0.03798222877100244</v>
+      </c>
+      <c r="D84">
+        <v>-0.009279249660868296</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
       <c r="A85" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B85">
-        <v>-0.0155240510229799</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>0.02753353432228752</v>
+      </c>
+      <c r="C85">
+        <v>-0.1307796175025347</v>
+      </c>
+      <c r="D85">
+        <v>0.04419646378867624</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B86">
-        <v>0.001590493626906893</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>0.005281818602687238</v>
+      </c>
+      <c r="C86">
+        <v>-0.04903912186414392</v>
+      </c>
+      <c r="D86">
+        <v>0.02155453896698025</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
       <c r="A87" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B87">
-        <v>0.005127910041834501</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>0.01007726080282393</v>
+      </c>
+      <c r="C87">
+        <v>-0.1342907159013141</v>
+      </c>
+      <c r="D87">
+        <v>0.0635813552093276</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
       <c r="A88" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B88">
-        <v>0.01328482903799955</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>-0.003155377509960812</v>
+      </c>
+      <c r="C88">
+        <v>-0.06787905118713823</v>
+      </c>
+      <c r="D88">
+        <v>0.01107989076858811</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
       <c r="A89" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B89">
-        <v>0.01546840052410998</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>-0.002210569133408808</v>
+      </c>
+      <c r="C89">
+        <v>-0.1442782035929848</v>
+      </c>
+      <c r="D89">
+        <v>-0.353026509384038</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B90">
-        <v>0.003052652370492321</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>0.006410687561373252</v>
+      </c>
+      <c r="C90">
+        <v>-0.1202228028081428</v>
+      </c>
+      <c r="D90">
+        <v>-0.3229376304599366</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
       <c r="A91" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B91">
-        <v>-0.0007616607314892039</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>0.009848444756165357</v>
+      </c>
+      <c r="C91">
+        <v>-0.1025643725886119</v>
+      </c>
+      <c r="D91">
+        <v>0.02198064391473235</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
       <c r="A92" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B92">
-        <v>0.008903111077802443</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>3.970509809663312e-06</v>
+      </c>
+      <c r="C92">
+        <v>-0.133696873529327</v>
+      </c>
+      <c r="D92">
+        <v>-0.3383207453325023</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
       <c r="A93" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B93">
-        <v>0.0008297752278199859</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>0.004354258780626636</v>
+      </c>
+      <c r="C93">
+        <v>-0.1039153637046775</v>
+      </c>
+      <c r="D93">
+        <v>-0.3167394797530247</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
       <c r="A94" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B94">
-        <v>-0.003803361574030687</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>0.02186705472287093</v>
+      </c>
+      <c r="C94">
+        <v>-0.1536040224793959</v>
+      </c>
+      <c r="D94">
+        <v>0.04565939161314182</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B95">
-        <v>0.004776180859597042</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>0.01577592721599682</v>
+      </c>
+      <c r="C95">
+        <v>-0.1277996196050311</v>
+      </c>
+      <c r="D95">
+        <v>0.0598283919018576</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
       <c r="A96" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:2">
+      <c r="C96">
+        <v>0</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
       <c r="A97" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B97">
-        <v>0.002063965187375397</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>0.03356868553107122</v>
+      </c>
+      <c r="C97">
+        <v>-0.1908650362450455</v>
+      </c>
+      <c r="D97">
+        <v>0.004901041557855999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
       <c r="A98" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B98">
-        <v>0.003699141761615659</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>0.03556525848975921</v>
+      </c>
+      <c r="C98">
+        <v>-0.250292127337188</v>
+      </c>
+      <c r="D98">
+        <v>0.0480325849836755</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B99">
-        <v>-0.9835077336543321</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>0.9829421372800362</v>
+      </c>
+      <c r="C99">
+        <v>0.1099439706945862</v>
+      </c>
+      <c r="D99">
+        <v>-0.02703699833543238</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
       <c r="A100" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:2">
+      <c r="C100">
+        <v>0</v>
+      </c>
+      <c r="D100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
       <c r="A101" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B101">
-        <v>0.001086341230473248</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>0.002938863724973254</v>
+      </c>
+      <c r="C101">
+        <v>-0.04881920999456631</v>
+      </c>
+      <c r="D101">
+        <v>0.005189417752935365</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
       <c r="A102" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:2">
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="D102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
       <c r="A103" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:2">
+      <c r="C103">
+        <v>0</v>
+      </c>
+      <c r="D103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
       <c r="A104" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B104">
+        <v>0</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+      <c r="D104">
         <v>0</v>
       </c>
     </row>
